--- a/DongAERP/Content/Report/ReportHSDetailt/ReportHSDetailtByPartnerLTForCompareForOne.xlsx
+++ b/DongAERP/Content/Report/ReportHSDetailt/ReportHSDetailtByPartnerLTForCompareForOne.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DongAERP\DongAERP\Content\Report\ReportHSDetailt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CF2CFC-42C3-417A-8AE6-8DA3B943379B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B78CEB-C710-43FE-80EE-71ADAA6CA867}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FDADBC8A-6B6C-45FD-98E5-87326587A42E}"/>
   </bookViews>
@@ -35,15 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
-    <t>1. Theo doanh số đối tác - loại tiền chi trả</t>
-  </si>
-  <si>
-    <t>BÁO CÁO CHI TIẾT - DOANH SỐ ĐỐI TÁC - LOẠI TIỀN CHI TRẢ</t>
-  </si>
-  <si>
-    <t>2. Theo tỷ trọng doanh số đối tác - loại tiền chi trả</t>
-  </si>
-  <si>
     <t>Loại tiền</t>
   </si>
   <si>
@@ -57,6 +48,15 @@
   </si>
   <si>
     <t>Tăng giảm so với cùng kỳ (+/-)</t>
+  </si>
+  <si>
+    <t>2. Theo tỷ trọng hồ sơ đối tác - loại tiền chi trả</t>
+  </si>
+  <si>
+    <t>1. Theo hồ sơ đối tác - loại tiền chi trả</t>
+  </si>
+  <si>
+    <t>BÁO CÁO CHI TIẾT - THEO ĐỐI TÁC - LOẠI TIỀN CHI TRẢ</t>
   </si>
 </sst>
 </file>
@@ -175,29 +175,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3B6D35-F82E-4989-A479-5B01F28891A5}">
   <dimension ref="A1:AF80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70:B80"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -548,24 +548,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
-        <v>1</v>
+      <c r="A1" s="24" t="s">
+        <v>7</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
       <c r="Q1" s="8"/>
       <c r="R1" s="8"/>
       <c r="S1" s="8"/>
@@ -624,11 +624,11 @@
       <c r="P4" s="1"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
-        <v>0</v>
+      <c r="A6" s="25" t="s">
+        <v>6</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
       <c r="AB6" s="5"/>
       <c r="AC6" s="5"/>
       <c r="AD6" s="5"/>
@@ -707,40 +707,40 @@
       <c r="V28" s="5"/>
     </row>
     <row r="29" spans="2:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="25"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
-      <c r="T29" s="21"/>
-      <c r="AA29" s="20"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="AA29" s="18"/>
       <c r="AC29" s="6"/>
     </row>
     <row r="30" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B30" s="13" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="16"/>
       <c r="F30" s="16" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
@@ -769,99 +769,99 @@
     </row>
     <row r="34" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="17"/>
-      <c r="C34" s="26"/>
-      <c r="AA34" s="20"/>
+      <c r="C34" s="23"/>
+      <c r="AA34" s="18"/>
       <c r="AC34" s="6"/>
     </row>
     <row r="35" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
-      <c r="AA35" s="20"/>
+      <c r="AA35" s="18"/>
       <c r="AC35" s="6"/>
     </row>
     <row r="36" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B36" s="7"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="26"/>
-      <c r="P36" s="26"/>
-      <c r="Q36" s="26"/>
-      <c r="R36" s="26"/>
-      <c r="S36" s="26"/>
-      <c r="T36" s="26"/>
-      <c r="U36" s="26"/>
-      <c r="V36" s="26"/>
-      <c r="W36" s="26"/>
-      <c r="X36" s="26"/>
-      <c r="Y36" s="26"/>
-      <c r="Z36" s="26"/>
-    </row>
-    <row r="37" spans="1:29" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="23"/>
+      <c r="R36" s="23"/>
+      <c r="S36" s="23"/>
+      <c r="T36" s="23"/>
+      <c r="U36" s="23"/>
+      <c r="V36" s="23"/>
+      <c r="W36" s="23"/>
+      <c r="X36" s="23"/>
+      <c r="Y36" s="23"/>
+      <c r="Z36" s="23"/>
+    </row>
+    <row r="37" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B37" s="7"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="22"/>
-      <c r="T37" s="22"/>
-      <c r="U37" s="22"/>
-      <c r="V37" s="22"/>
-      <c r="W37" s="22"/>
-      <c r="X37" s="22"/>
-      <c r="Y37" s="22"/>
-      <c r="Z37" s="22"/>
-      <c r="AA37" s="23"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="19"/>
+      <c r="V37" s="19"/>
+      <c r="W37" s="19"/>
+      <c r="X37" s="19"/>
+      <c r="Y37" s="19"/>
+      <c r="Z37" s="19"/>
+      <c r="AA37" s="20"/>
       <c r="AC37" s="17"/>
     </row>
     <row r="38" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="24"/>
-      <c r="AA38" s="20"/>
+      <c r="B38" s="21"/>
+      <c r="AA38" s="18"/>
       <c r="AC38" s="6"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B39" s="11"/>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A41" s="18" t="s">
-        <v>2</v>
+      <c r="A41" s="25" t="s">
+        <v>5</v>
       </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C69" s="14"/>
       <c r="D69" s="14"/>
       <c r="E69" s="14"/>
       <c r="F69" s="12" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G69" s="15" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.3">
@@ -899,15 +899,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="C29:E29"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A41:C41"/>
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="I29:K29"/>
     <mergeCell ref="L29:N29"/>
     <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="R29:T29"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="C29:E29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
